--- a/biology/Botanique/Bipolaris/Bipolaris.xlsx
+++ b/biology/Botanique/Bipolaris/Bipolaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bipolaris est un genre de champignons ascomycètes de la famille des Pleosporaceae. Le stade téléomorphe est Cochliobolus.
 Ce genre comprend plus de quarante espèces étroitement apparentées. Beaucoup de ces espèces sont des agents pathogènes des céréales, généralement spécifiques d'une espèce de plante-hôte, provoquant chez ces plantes des maladies du groupe des helminthosporioses.
-Plusieurs espèces, en particulier Bipolaris australiensis, Bipolaris hawaiiensis et Bipolaris spicifera sont bien documentées comme agents pathogènes chez l'homme[2]. Cependant une étude de 2012 propose de reclasser ces espèces dans le genre Curvularia (téléomorphe : Pseudocochliobolus)[3].
+Plusieurs espèces, en particulier Bipolaris australiensis, Bipolaris hawaiiensis et Bipolaris spicifera sont bien documentées comme agents pathogènes chez l'homme. Cependant une étude de 2012 propose de reclasser ces espèces dans le genre Curvularia (téléomorphe : Pseudocochliobolus).
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Pathologie végétale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces les plus agressives pour les céréales sont Cochliobolus heterostrophus (Bipolaris maydis), nécrotrophe[4], et Cochliobolus carbonum (Bipolaris zeicola), tous deux agents pathogènes du maïs , Cochliobolus victoriae  (Bipolaris victoriae), agent pathogène de l'avoine, Cochliobolus miyabeanus (Bipolaris oryzae), agent pathogène du riz, Bipolaris sorghicola, agent pathogène du sorgho, Bipolaris sacchari, agent pathogène de la canne à sucre, Cochliobolus sativus (Bipolaris sorokiniana), agent pathogène hémibiotrophe[5] des céréales et des graminées fourragères[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces les plus agressives pour les céréales sont Cochliobolus heterostrophus (Bipolaris maydis), nécrotrophe, et Cochliobolus carbonum (Bipolaris zeicola), tous deux agents pathogènes du maïs , Cochliobolus victoriae  (Bipolaris victoriae), agent pathogène de l'avoine, Cochliobolus miyabeanus (Bipolaris oryzae), agent pathogène du riz, Bipolaris sorghicola, agent pathogène du sorgho, Bipolaris sacchari, agent pathogène de la canne à sucre, Cochliobolus sativus (Bipolaris sorokiniana), agent pathogène hémibiotrophe des céréales et des graminées fourragères.
 Ces différentes espèces appartiennent à un groupe phylogénétique resserré, suggérant qu'un ancêtre commun a donné naissance, au cours d'une période de temps relativement courte, à cette série de biotypes distincts, qui se distinguent par leur spécificité à l'égard d'un type de céréale.
-Comme c'est le cas d'autres taxons apparentés (par exemple, Pyrenophora tritici-repentis, Stagonospora nodorum, Alternaria alternata), les espèces du genre Cochliobolus spp. se caractérisent par leur capacité à produire des souches nouvelles, très virulentes, produisant des toxines sélectives des différents hôtes (HST)[6].
+Comme c'est le cas d'autres taxons apparentés (par exemple, Pyrenophora tritici-repentis, Stagonospora nodorum, Alternaria alternata), les espèces du genre Cochliobolus spp. se caractérisent par leur capacité à produire des souches nouvelles, très virulentes, produisant des toxines sélectives des différents hôtes (HST).
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Pathologie humaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez l'homme, les manifestations cliniques consistent en  kératite mycosique, phaeohyphomycose sous-cutanée,  sinusite, et  péritonite chez les patients sous dialyse péritonéale continue ambulatoire (DPCA), et en infections cérébrales et diffuses. La phaeohyphomycose causée par les espèces du genre Bipolaris a été signalée aussi bien chez des patients normaux que chez des personnes immunodéprimées[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'homme, les manifestations cliniques consistent en  kératite mycosique, phaeohyphomycose sous-cutanée,  sinusite, et  péritonite chez les patients sous dialyse péritonéale continue ambulatoire (DPCA), et en infections cérébrales et diffuses. La phaeohyphomycose causée par les espèces du genre Bipolaris a été signalée aussi bien chez des patients normaux que chez des personnes immunodéprimées.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2014)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2014) :
 Bipolaris australis
 Bipolaris brizae
 Bipolaris buchloës
@@ -674,9 +692,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (24 juillet 2014)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (24 juillet 2014) :
 Bipolaris australis Alcorn 1982
 Bipolaris brizae (Y. Nisik.) Shoemaker 1959
 Bipolaris buchloës (Lefebvre &amp; Aar.G. Johnson) Shoemaker 1959
@@ -751,10 +771,10 @@
 Bipolaris xanthosomatis B. Huguenin 1966
 Bipolaris zeae Sivan. 1985
 Bipolaris zeicola (G.L. Stout) Shoemaker 1959
-Selon ITIS      (24 juillet 2014)[1] :
+Selon ITIS      (24 juillet 2014) :
 Drechslera halodes (Drechsler) Subramanian &amp; Jain
 Drechslera tritici-vulgaris (Nisikado) Ito Ex Hughes
-Selon NCBI  (24 juillet 2014)[9] :
+Selon NCBI  (24 juillet 2014) :
 Bipolaris australis
 Bipolaris bicolor
 Bipolaris cactivora
